--- a/sputnik/personal/ee/297ee.xlsx
+++ b/sputnik/personal/ee/297ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -16,23 +16,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Т1</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -40,16 +31,28 @@
   </si>
   <si>
     <t xml:space="preserve">кВт/ч к оплате </t>
+  </si>
+  <si>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,14 +75,6 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -89,7 +84,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -119,32 +114,17 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -157,43 +137,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -256,7 +212,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -288,10 +244,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -323,7 +278,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -499,17 +453,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F3"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
@@ -517,34 +471,39 @@
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="12.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="51" customHeight="1">
+      <c r="A1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="F1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>4</v>
+      <c r="H1" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1">
       <c r="A2" s="4">
         <v>41454</v>
       </c>
@@ -557,193 +516,48 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1">
       <c r="A3" s="4"/>
       <c r="B3" s="3"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="19.5" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="20"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="19.5" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="6"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="19.5" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="8"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="6"/>
-      <c r="H9" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="16"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -753,12 +567,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -767,12 +581,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
